--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFB2BBF-2EA2-4414-BA84-F24184E2359E}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E5853-28C2-47A0-BB8A-0622ECF49F6A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Concepts</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>6.35pm-7.40pm</t>
+  </si>
+  <si>
+    <t>6.30pm-7.35pm</t>
+  </si>
+  <si>
+    <t>Variables,Type casting</t>
   </si>
 </sst>
 </file>
@@ -678,7 +684,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,9 +779,15 @@
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="4">
+        <v>45197</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E5853-28C2-47A0-BB8A-0622ECF49F6A}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1593BE7B-AA0A-423A-83AC-1D36D54AC878}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Concepts</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>Variables,Type casting</t>
+  </si>
+  <si>
+    <t>Methods,Packages</t>
+  </si>
+  <si>
+    <t>commandline args,Wrapperclasses,scanner class</t>
+  </si>
+  <si>
+    <t>6.35pm-7.45pm</t>
+  </si>
+  <si>
+    <t>revise</t>
   </si>
 </sst>
 </file>
@@ -683,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4">
-        <v>37891</v>
+        <v>45196</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>71</v>
@@ -795,19 +807,33 @@
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="4">
+        <v>45198</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="4">
+        <v>45201</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1593BE7B-AA0A-423A-83AC-1D36D54AC878}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7433F568-2951-45AF-82E9-A59BE3702651}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Concepts</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>revise</t>
+  </si>
+  <si>
+    <t>Flow control statements</t>
+  </si>
+  <si>
+    <t>6.35pm-7.35pm</t>
+  </si>
+  <si>
+    <t>complete assignments</t>
   </si>
 </sst>
 </file>
@@ -695,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +850,18 @@
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="4">
+        <v>45202</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7433F568-2951-45AF-82E9-A59BE3702651}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE2BDDE-3E44-462D-9A3D-FC89D48E6039}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Concepts</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>complete assignments</t>
+  </si>
+  <si>
+    <t>flow controls cntd..,  operators</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,7 +704,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,9 +867,15 @@
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4">
+        <v>45203</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE2BDDE-3E44-462D-9A3D-FC89D48E6039}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B041C4C-45B5-4743-905D-123649B79747}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Concepts</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>flow controls cntd..,  operators</t>
+  </si>
+  <si>
+    <t>OOPs Introduction,Inheritance</t>
   </si>
 </sst>
 </file>
@@ -436,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,7 +711,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,9 +890,15 @@
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="4">
+        <v>45204</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B041C4C-45B5-4743-905D-123649B79747}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{700580B4-22D6-4B33-B410-DEA63FB75C44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Concepts</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>OOPs Introduction,Inheritance</t>
+  </si>
+  <si>
+    <t>Inheritance cntd..,Abstraction</t>
+  </si>
+  <si>
+    <t>complete assignment</t>
   </si>
 </sst>
 </file>
@@ -710,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,10 +912,18 @@
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="4">
+        <v>45205</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{700580B4-22D6-4B33-B410-DEA63FB75C44}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4ECDF0A-55A8-4D0E-B8BB-DC5F0F63C0EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Concepts</t>
   </si>
@@ -283,6 +284,12 @@
   </si>
   <si>
     <t>complete assignment</t>
+  </si>
+  <si>
+    <t>Abstract class,Interface,multiple inheritance</t>
+  </si>
+  <si>
+    <t>6.30pm-7-45pm</t>
   </si>
 </sst>
 </file>
@@ -717,7 +724,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +740,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="I3" s="8"/>
@@ -930,9 +937,15 @@
       <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="4">
+        <v>45208</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
@@ -2181,7 +2194,27 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{2EE240EB-8C7A-4658-B143-53B31D6D9567}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7C8F08-EA4A-47AB-8AE5-1C9A85DC1A74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4ECDF0A-55A8-4D0E-B8BB-DC5F0F63C0EF}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90669249-9BE0-46A9-AA10-F9EEEF50A39C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Concepts</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>6.30pm-7-45pm</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>complete the given task on m.overriding</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,7 +726,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,10 +955,18 @@
       <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="4">
+        <v>45209</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90669249-9BE0-46A9-AA10-F9EEEF50A39C}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6947D13-7F21-4EDF-9F26-D0556359E2F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Concepts</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>complete the given task on m.overriding</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>6.30pm-7.40pm</t>
   </si>
 </sst>
 </file>
@@ -458,6 +464,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,7 +736,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,9 +983,15 @@
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="4">
+        <v>45210</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6947D13-7F21-4EDF-9F26-D0556359E2F8}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057D7CB1-ED45-4C20-B7B4-F23BD2A480F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>Concepts</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>6.30pm-7.40pm</t>
+  </si>
+  <si>
+    <t>final,this,super keywords</t>
+  </si>
+  <si>
+    <t>6.40pm-7.50pm</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,9 +1005,15 @@
       <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="4">
+        <v>45211</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057D7CB1-ED45-4C20-B7B4-F23BD2A480F6}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0A759D-C413-440E-8EFC-3559270C4ED4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Concepts</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>6.40pm-7.50pm</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t>work on this,super examples,complete assignments</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,10 +1028,18 @@
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="4">
+        <v>45212</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD0A759D-C413-440E-8EFC-3559270C4ED4}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E7E877-F25E-412C-9BC8-358089B3439B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Concepts</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>work on this,super examples,complete assignments</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,9 +1049,15 @@
       <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="4">
+        <v>45216</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9E7E877-F25E-412C-9BC8-358089B3439B}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F34A63-7A93-4C39-AA88-CEB1BDD553ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>Concepts</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>String class</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,7 +750,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,9 +1064,15 @@
       <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="4">
+        <v>45217</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07F34A63-7A93-4C39-AA88-CEB1BDD553ED}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F0F9776-EE96-4031-B180-6F14D2EC51BF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Concepts</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>String class</t>
+  </si>
+  <si>
+    <t>String class methods,stringbuffer and string builder</t>
+  </si>
+  <si>
+    <t>work on string class methods</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>work on multidimensional array dynamically</t>
   </si>
 </sst>
 </file>
@@ -482,6 +494,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,7 +766,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,20 +1096,36 @@
       <c r="D22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
+      <c r="E22" s="4">
+        <v>45218</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
+      <c r="E23" s="4">
+        <v>45219</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F0F9776-EE96-4031-B180-6F14D2EC51BF}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1D7F63C-3679-43A5-A90E-F73AFE642C14}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Concepts</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>work on multidimensional array dynamically</t>
+  </si>
+  <si>
+    <t>ExceptionHandling</t>
+  </si>
+  <si>
+    <t>6.35pm-7.30pm</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,9 +1138,15 @@
       <c r="D24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="4">
+        <v>45223</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="M24" s="8"/>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1D7F63C-3679-43A5-A90E-F73AFE642C14}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40067F1-AFD0-4811-A9AC-8859D2BDC928}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Concepts</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>6.35pm-7.30pm</t>
+  </si>
+  <si>
+    <t>ExceptionHandling contd….</t>
+  </si>
+  <si>
+    <t>UserExceptions,File Handling</t>
+  </si>
+  <si>
+    <t>work on Eligibility to vote Exception</t>
   </si>
 </sst>
 </file>
@@ -772,7 +781,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,9 +1164,15 @@
       <c r="D25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="4">
+        <v>45224</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="M25" s="8"/>
@@ -1166,10 +1181,18 @@
       <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
+      <c r="E26" s="4">
+        <v>45225</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="M26" s="8"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40067F1-AFD0-4811-A9AC-8859D2BDC928}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{009C2530-0C41-40F0-A87C-9C2F2C9943A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>Concepts</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>work on Eligibility to vote Exception</t>
+  </si>
+  <si>
+    <t>6.35pm-7.50pm</t>
+  </si>
+  <si>
+    <t>complete all assignments</t>
+  </si>
+  <si>
+    <t>FileHandling,Serialization and deserialization</t>
   </si>
 </sst>
 </file>
@@ -780,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,10 +1209,18 @@
       <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
+      <c r="E27" s="4">
+        <v>45226</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{009C2530-0C41-40F0-A87C-9C2F2C9943A5}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D72336-68D9-44A8-85C1-90BF572D890B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>Concepts</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>FileHandling,Serialization and deserialization</t>
+  </si>
+  <si>
+    <t>MultiThreading</t>
+  </si>
+  <si>
+    <t>MultiThreading contd….</t>
+  </si>
+  <si>
+    <t>6.35pm-7.55pm</t>
   </si>
 </sst>
 </file>
@@ -790,7 +799,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,9 +1236,15 @@
       <c r="D28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4">
+        <v>45229</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -1237,9 +1252,15 @@
       <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="4">
+        <v>45230</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D72336-68D9-44A8-85C1-90BF572D890B}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E3BBC20-B2CE-41C9-9E31-FAE4E8DA3046}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>Concepts</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>6.35pm-7.55pm</t>
+  </si>
+  <si>
+    <t>Collection Framework</t>
+  </si>
+  <si>
+    <t>Collection Framework contd…</t>
+  </si>
+  <si>
+    <t>6.35pm-8.05pm</t>
+  </si>
+  <si>
+    <t>go through collection interface methods</t>
   </si>
 </sst>
 </file>
@@ -799,7 +811,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,9 +1280,15 @@
       <c r="D30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="4">
+        <v>45231</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
@@ -1278,10 +1296,18 @@
       <c r="D31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="E31" s="4">
+        <v>45232</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E3BBC20-B2CE-41C9-9E31-FAE4E8DA3046}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD530448-0756-419E-91F4-13E9C6104E6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Concepts</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>go through collection interface methods</t>
+  </si>
+  <si>
+    <t>CaseStudy on corejava…Banking Application</t>
+  </si>
+  <si>
+    <t>casestudy contd…Layered Architecture Intro</t>
+  </si>
+  <si>
+    <t>casestudy Layered Architecture and java8 intro</t>
   </si>
 </sst>
 </file>
@@ -810,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,9 +1323,15 @@
       <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="4">
+        <v>45233</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1324,9 +1339,15 @@
       <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="10"/>
+      <c r="E33" s="4">
+        <v>45236</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
@@ -1334,9 +1355,15 @@
       <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="10"/>
+      <c r="E34" s="4">
+        <v>45237</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD530448-0756-419E-91F4-13E9C6104E6B}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437C7A9D-1FD8-4CAA-BFC0-E645449910C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
   <si>
     <t>Concepts</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>casestudy Layered Architecture and java8 intro</t>
+  </si>
+  <si>
+    <t>Java8 Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revise java8 </t>
   </si>
 </sst>
 </file>
@@ -820,7 +826,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,10 +1377,18 @@
       <c r="D35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="3"/>
+      <c r="E35" s="4">
+        <v>45146</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{437C7A9D-1FD8-4CAA-BFC0-E645449910C5}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26762BD6-AB4C-46A8-B7CA-176300A63214}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>Concepts</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t xml:space="preserve">revise java8 </t>
+  </si>
+  <si>
+    <t>DATABASE-SQL</t>
+  </si>
+  <si>
+    <t>create github for assignments,install mysql,create database and table</t>
   </si>
 </sst>
 </file>
@@ -826,7 +832,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1384,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="4">
-        <v>45146</v>
+        <v>45238</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>120</v>
@@ -1395,10 +1401,18 @@
       <c r="D36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="3"/>
+      <c r="E36" s="4">
+        <v>45239</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26762BD6-AB4C-46A8-B7CA-176300A63214}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DB5DC8-66B0-43BC-9581-641DF46F5801}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
   <si>
     <t>Concepts</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>create github for assignments,install mysql,create database and table</t>
+  </si>
+  <si>
+    <t>Database contd….</t>
+  </si>
+  <si>
+    <t>JDBC</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,9 +1425,15 @@
       <c r="D37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="10"/>
+      <c r="E37" s="4">
+        <v>45240</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
@@ -1429,9 +1441,15 @@
       <c r="D38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
+      <c r="E38" s="4">
+        <v>45243</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3DB5DC8-66B0-43BC-9581-641DF46F5801}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC82EFB8-3FE5-43EA-AF0C-54BC7D78688D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>Concepts</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>JDBC</t>
+  </si>
+  <si>
+    <t>JPA_HIBERNATE</t>
+  </si>
+  <si>
+    <t>JPA_HIBERNATE contd...,JPQL,Bank CaseStudy using JPA</t>
+  </si>
+  <si>
+    <t>6.35pm-8.00pm</t>
   </si>
 </sst>
 </file>
@@ -837,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,9 +1466,15 @@
       <c r="D39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="4">
+        <v>45244</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -1467,9 +1482,15 @@
       <c r="D40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="10"/>
+      <c r="E40" s="4">
+        <v>45245</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC82EFB8-3FE5-43EA-AF0C-54BC7D78688D}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26104151-2B57-42C0-8B9B-AF62C8BB0FED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t>Concepts</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>6.35pm-8.00pm</t>
+  </si>
+  <si>
+    <t>Spring Framework,Spring core</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,9 +1501,15 @@
       <c r="D41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="10"/>
+      <c r="E41" s="4">
+        <v>45246</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26104151-2B57-42C0-8B9B-AF62C8BB0FED}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5FD62A-FEAE-49E0-B5A2-2A9E7A7E6A4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>Concepts</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>Spring Framework,Spring core</t>
+  </si>
+  <si>
+    <t>create jdbc project</t>
+  </si>
+  <si>
+    <t>create jpa project</t>
+  </si>
+  <si>
+    <t>spring core contd..</t>
+  </si>
+  <si>
+    <t>create a spring project</t>
   </si>
 </sst>
 </file>
@@ -849,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1474,9 @@
       <c r="G38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
@@ -1494,7 +1508,9 @@
       <c r="G40" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
@@ -1517,10 +1533,18 @@
       <c r="D42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="3"/>
+      <c r="E42" s="4">
+        <v>45247</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C5FD62A-FEAE-49E0-B5A2-2A9E7A7E6A4C}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AF2EC1-06C4-49DC-BFEA-9DE65EA234C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
   <si>
     <t>Concepts</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>create a spring project</t>
+  </si>
+  <si>
+    <t>Maven project,Annotation configuration</t>
+  </si>
+  <si>
+    <t>Java configuration, Spring Jdbc</t>
+  </si>
+  <si>
+    <t>Spring Jpa</t>
   </si>
 </sst>
 </file>
@@ -862,7 +871,7 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,9 +1560,15 @@
       <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="4">
+        <v>45250</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
@@ -1561,9 +1576,15 @@
       <c r="D44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="10"/>
+      <c r="E44" s="4">
+        <v>45251</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
@@ -1571,9 +1592,15 @@
       <c r="D45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="10"/>
+      <c r="E45" s="4">
+        <v>45252</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6AF2EC1-06C4-49DC-BFEA-9DE65EA234C4}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA85E8CE-17C0-451E-AF75-C68ABB82B8B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>Concepts</t>
   </si>
@@ -437,6 +437,15 @@
   </si>
   <si>
     <t>Spring Jpa</t>
+  </si>
+  <si>
+    <t>SpringBoot intro,RestApi</t>
+  </si>
+  <si>
+    <t>ThanksGivingDay Break</t>
+  </si>
+  <si>
+    <t>SpringBoot Project with Rest services and DataJPA</t>
   </si>
 </sst>
 </file>
@@ -870,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,9 +1617,15 @@
       <c r="D46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="E46" s="6">
+        <v>45253</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
@@ -1618,8 +1633,12 @@
       <c r="D47" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="6">
+        <v>45254</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1628,9 +1647,15 @@
       <c r="D48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="6">
+        <v>45257</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>

--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cedfc14377c80b6e/Desktop/KTG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA85E8CE-17C0-451E-AF75-C68ABB82B8B4}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{3A836909-6E7C-48B0-8CA1-F89016A96ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1563C96-C901-42C9-8EF5-DD43FFA11B04}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Concepts</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>SpringBoot Project with Rest services and DataJPA</t>
+  </si>
+  <si>
+    <t>Junit and Mockito framework,spring boot project with jwt security</t>
+  </si>
+  <si>
+    <t>Frontend web technologies intro,Html intro</t>
+  </si>
+  <si>
+    <t>Html-text formatting tags,marquee tag,image tag,anchor tag.</t>
+  </si>
+  <si>
+    <t>Html-list elements ,Table element</t>
+  </si>
+  <si>
+    <t>work on assignment given on images,link,tables</t>
   </si>
 </sst>
 </file>
@@ -879,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,9 +1668,7 @@
       <c r="F48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
@@ -1663,9 +1676,15 @@
       <c r="D49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="6">
+        <v>45258</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
@@ -1673,9 +1692,15 @@
       <c r="D50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="E50" s="6">
+        <v>45259</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
@@ -1683,9 +1708,15 @@
       <c r="D51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="E51" s="6">
+        <v>45260</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
@@ -1693,10 +1724,18 @@
       <c r="D52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="E52" s="6">
+        <v>45261</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.3">
